--- a/modif.xlsx
+++ b/modif.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,21 +426,21 @@
       </c>
       <c r="F3">
         <f>SUM(F7:F26)</f>
-        <v>-414</v>
+        <v>-514</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3">
         <f>SUM(B3:F3)</f>
-        <v>1973.7399999999998</v>
+        <v>1873.7399999999998</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="3">
         <f>279+(-F3)</f>
-        <v>693</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -490,6 +490,9 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>70</v>
+      </c>
+      <c r="F11">
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">

--- a/modif.xlsx
+++ b/modif.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,21 +426,21 @@
       </c>
       <c r="F3">
         <f>SUM(F7:F26)</f>
-        <v>-514</v>
+        <v>-589</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3">
         <f>SUM(B3:F3)</f>
-        <v>1873.7399999999998</v>
+        <v>1798.7399999999998</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="3">
         <f>279+(-F3)</f>
-        <v>793</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -498,6 +498,9 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>12</v>
+      </c>
+      <c r="F12">
+        <v>-75</v>
       </c>
       <c r="O12" t="s">
         <v>4</v>

--- a/modif.xlsx
+++ b/modif.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,21 +426,21 @@
       </c>
       <c r="F3">
         <f>SUM(F7:F26)</f>
-        <v>-589</v>
+        <v>-654</v>
       </c>
       <c r="J3" t="s">
         <v>2</v>
       </c>
       <c r="K3">
         <f>SUM(B3:F3)</f>
-        <v>1798.7399999999998</v>
+        <v>1733.7399999999998</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
       </c>
       <c r="P3" s="3">
         <f>279+(-F3)</f>
-        <v>868</v>
+        <v>933</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -513,6 +513,9 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>14</v>
+      </c>
+      <c r="F13">
+        <v>-65</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
